--- a/candidate_output.xlsx
+++ b/candidate_output.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -426,13 +426,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>109.1786159991517</v>
+        <v>109.1786205742166</v>
       </c>
       <c r="C1" t="n">
-        <v>10.3709791142102</v>
+        <v>10.37097476852108</v>
       </c>
       <c r="D1" t="n">
-        <v>1.233905917112496</v>
+        <v>1.233906563344711</v>
       </c>
     </row>
     <row r="2">
@@ -440,13 +440,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>112.5111492593596</v>
+        <v>112.511197023974</v>
       </c>
       <c r="C2" t="n">
-        <v>10.22667736102537</v>
+        <v>10.23179269695487</v>
       </c>
       <c r="D2" t="n">
-        <v>1.088972152293099</v>
+        <v>1.088284220444473</v>
       </c>
     </row>
     <row r="3">
@@ -454,41 +454,41 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>102.7751520335874</v>
+        <v>102.7756044855822</v>
       </c>
       <c r="C3" t="n">
-        <v>10.58245219353956</v>
+        <v>10.58245397251616</v>
       </c>
       <c r="D3" t="n">
-        <v>1.054715452212185</v>
+        <v>1.054717717983383</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>98.72426217078821</v>
+        <v>103.166746438103</v>
       </c>
       <c r="C4" t="n">
-        <v>10.6778879089335</v>
+        <v>10.8996482801407</v>
       </c>
       <c r="D4" t="n">
-        <v>1.06814525483544</v>
+        <v>0.7926528662174265</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>104.4464925220635</v>
+        <v>98.54296266253425</v>
       </c>
       <c r="C5" t="n">
-        <v>10.3272192561947</v>
+        <v>10.69053567380967</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9438249195704006</v>
+        <v>1.064762899394597</v>
       </c>
     </row>
     <row r="6">
@@ -496,27 +496,167 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>97.66904763304348</v>
+        <v>104.3718034604765</v>
       </c>
       <c r="C6" t="n">
-        <v>10.29763773295634</v>
+        <v>10.33323711615574</v>
       </c>
       <c r="D6" t="n">
-        <v>1.124563813914136</v>
+        <v>0.9435102513415738</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>99.5333908741014</v>
+        <v>101.1011844393747</v>
       </c>
       <c r="C7" t="n">
-        <v>10.53440643914948</v>
+        <v>10.37965696862676</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8283620475904198</v>
+        <v>1.066588561399274</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>10</v>
+      </c>
+      <c r="B8" t="n">
+        <v>97.03337002844215</v>
+      </c>
+      <c r="C8" t="n">
+        <v>10.76193278594143</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.006258967614246</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>11</v>
+      </c>
+      <c r="B9" t="n">
+        <v>97.64265315771384</v>
+      </c>
+      <c r="C9" t="n">
+        <v>10.29382548146205</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.124525108184251</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>12</v>
+      </c>
+      <c r="B10" t="n">
+        <v>99.46655366285279</v>
+      </c>
+      <c r="C10" t="n">
+        <v>10.52890109413067</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8283571727685592</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>14</v>
+      </c>
+      <c r="B11" t="n">
+        <v>93.15156922950189</v>
+      </c>
+      <c r="C11" t="n">
+        <v>10.58962240117504</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.858600470404917</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>15</v>
+      </c>
+      <c r="B12" t="n">
+        <v>92.78555524585381</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10.13239105666403</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.09887750072958</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>17</v>
+      </c>
+      <c r="B13" t="n">
+        <v>88.81350597853542</v>
+      </c>
+      <c r="C13" t="n">
+        <v>10.06948390580832</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.109296649182347</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>19</v>
+      </c>
+      <c r="B14" t="n">
+        <v>90.42192385422325</v>
+      </c>
+      <c r="C14" t="n">
+        <v>10.15493461409919</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9148563577195951</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>20</v>
+      </c>
+      <c r="B15" t="n">
+        <v>89.38019988050237</v>
+      </c>
+      <c r="C15" t="n">
+        <v>10.45565062792593</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.755169316139251</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>24</v>
+      </c>
+      <c r="B16" t="n">
+        <v>84.6488430913671</v>
+      </c>
+      <c r="C16" t="n">
+        <v>10.11986427361115</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9047655866026827</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>27</v>
+      </c>
+      <c r="B17" t="n">
+        <v>81.35088578706497</v>
+      </c>
+      <c r="C17" t="n">
+        <v>10.21020303845059</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9203340417559835</v>
       </c>
     </row>
   </sheetData>
